--- a/DOCUMENTACION/ORDEN DE SERVICIO.xlsx
+++ b/DOCUMENTACION/ORDEN DE SERVICIO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBS\MODELADOR\DOCUMENTACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WEBS\MODELADOR\DOCUMENTACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18504" windowHeight="8640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18510" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -74,33 +74,6 @@
     <t>REEMPAQUE</t>
   </si>
   <si>
-    <t>OSCTL</t>
-  </si>
-  <si>
-    <t>OSCPZ</t>
-  </si>
-  <si>
-    <t>OSEPZ</t>
-  </si>
-  <si>
-    <t>OSEPR</t>
-  </si>
-  <si>
-    <t>OSBPZ</t>
-  </si>
-  <si>
-    <t>OSBPR</t>
-  </si>
-  <si>
-    <t>OSLPZ</t>
-  </si>
-  <si>
-    <t>OSLPR</t>
-  </si>
-  <si>
-    <t>OSAPR</t>
-  </si>
-  <si>
     <t>OSZPZ</t>
   </si>
   <si>
@@ -143,9 +116,6 @@
     <t>CHAR(10)</t>
   </si>
   <si>
-    <t>CHAR(5)</t>
-  </si>
-  <si>
     <t>CODMON</t>
   </si>
   <si>
@@ -171,6 +141,36 @@
   </si>
   <si>
     <t>NUMERIC (18,4)</t>
+  </si>
+  <si>
+    <t>CTL</t>
+  </si>
+  <si>
+    <t>CPZ</t>
+  </si>
+  <si>
+    <t>EPZ</t>
+  </si>
+  <si>
+    <t>BPZ</t>
+  </si>
+  <si>
+    <t>EPR</t>
+  </si>
+  <si>
+    <t>BPR</t>
+  </si>
+  <si>
+    <t>LPZ</t>
+  </si>
+  <si>
+    <t>LPR</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>CHAR(3)</t>
   </si>
 </sst>
 </file>
@@ -270,9 +270,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -285,6 +282,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -577,20 +577,21 @@
   <dimension ref="C1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -601,298 +602,298 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="8" t="s">
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="H11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:I1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>